--- a/Datos/Anuario2024/030102_ParqueVehiculosDGT.xlsx
+++ b/Datos/Anuario2024/030102_ParqueVehiculosDGT.xlsx
@@ -1,62 +1,316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9285"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="20" r:id="rId2"/>
+    <sheet name="2" sheetId="19" r:id="rId3"/>
+    <sheet name="3" sheetId="21" r:id="rId4"/>
+    <sheet name="4" sheetId="27" r:id="rId5"/>
+    <sheet name="5" sheetId="28" r:id="rId6"/>
+    <sheet name="6" sheetId="23" r:id="rId7"/>
+    <sheet name="7" sheetId="25" r:id="rId8"/>
+    <sheet name="8" sheetId="26" r:id="rId9"/>
+    <sheet name="9" sheetId="22" r:id="rId10"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="3">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="6">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="7">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="8">#REF!</definedName>
+    <definedName name="_R1_2" localSheetId="9">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="3">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="6">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="7">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="8">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="9">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="3">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="6">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="7">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="8">#REF!</definedName>
+    <definedName name="_R10_1" localSheetId="9">#REF!</definedName>
     <definedName name="_R10_1">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="3">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="6">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="7">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="8">#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="9">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="3">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="6">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="7">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="8">#REF!</definedName>
+    <definedName name="_R2_11" localSheetId="9">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="3">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="6">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="7">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="8">#REF!</definedName>
+    <definedName name="_R2_12" localSheetId="9">#REF!</definedName>
     <definedName name="_R2_12">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="3">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="6">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="7">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="8">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="9">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="6">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="7">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="8">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="9">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="3">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="4">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="5">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="6">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="7">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="8">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="9">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
     <definedName name="_R3_13">'[1]2.3'!$A$1:$K$41</definedName>
+    <definedName name="_R3_14" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
     <definedName name="_R3_15">'[1]2.4'!$A$1:$K$136</definedName>
     <definedName name="_R3_16">'[1]2.7'!$A$1:$M$113</definedName>
+    <definedName name="_R3_17" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_17" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_17">#REF!</definedName>
     <definedName name="_R3_18">'[1]2.5'!$A$1:$G$25</definedName>
+    <definedName name="_R3_19" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_19" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_19">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_20" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_20">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_21" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_21">#REF!</definedName>
     <definedName name="_R3_22">'[1]2.6'!$A$1:$G$25</definedName>
+    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="3">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="4">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="5">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="6">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="7">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="9">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="3">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="4">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="7">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="8">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="9">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_10" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_10">#REF!</definedName>
     <definedName name="_R5_11">'[1]4.15'!$A$1:$B$18</definedName>
     <definedName name="_R5_12">'[1]4.17'!$A$1:$I$8</definedName>
@@ -64,458 +318,430 @@
     <definedName name="_R5_14">'[1]4.16'!$A$1:$N$7</definedName>
     <definedName name="_R5_15">'[1]4.20'!$A$1:$M$6</definedName>
     <definedName name="_R5_16">'[1]4.22'!$A$1:$M$13</definedName>
+    <definedName name="_R5_17" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_17" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_17">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_18" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_18">#REF!</definedName>
     <definedName name="_R5_19">'[1]4.34'!$A$1:$G$22</definedName>
     <definedName name="_R5_20">'[1]4.31'!$A$1:$G$22</definedName>
+    <definedName name="_R5_21" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_21" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_21">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_22" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_22">#REF!</definedName>
     <definedName name="_R5_23">'[1]4.36'!$A$1:$J$26</definedName>
     <definedName name="_R5_24">'[1]4.33'!$A$1:$J$26</definedName>
     <definedName name="_R5_25">'[1]4.30'!$A$1:$F$10</definedName>
     <definedName name="_R5_26">'[1]4.37'!$A$1:$U$26</definedName>
+    <definedName name="_R5_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="3">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="4">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="5">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="6">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="7">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="8">#REF!</definedName>
+    <definedName name="_R5_9" localSheetId="9">#REF!</definedName>
     <definedName name="_R5_9">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="3">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="6">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="7">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="8">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="9">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="1">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="3">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="4">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="5">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="6">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="7">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="8">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="9">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="1">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="3">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="4">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="5">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="6">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="7">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="8">#REF!</definedName>
+    <definedName name="_R7_2" localSheetId="9">#REF!</definedName>
     <definedName name="_R7_2">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="3">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="4">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="5">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="6">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="7">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="8">#REF!</definedName>
+    <definedName name="_R8_3" localSheetId="9">#REF!</definedName>
     <definedName name="_R8_3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="3">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="4">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="5">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="6">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="7">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="8">#REF!</definedName>
+    <definedName name="_R8_4" localSheetId="9">#REF!</definedName>
     <definedName name="_R8_4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="1">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="3">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="4">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="5">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="6">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="7">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="8">#REF!</definedName>
+    <definedName name="_R8_5" localSheetId="9">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="p">'[2]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[2]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_R1_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="1">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="1">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="3">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="3">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="3">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="3">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="3">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="3">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="3">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="4">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="4">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="4">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="4">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="4">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="4">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="4">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="4">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="5">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="5">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="5">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="5">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="5">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="5">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="5">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="6">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="6">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="6">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="6">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="6">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="6">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="6">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="7">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="7">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="7">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="7">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="7">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="7">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="7">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="7">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="7">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="7">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="7">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="7">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="7">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="7">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="7">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="7">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="7">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="7">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="8">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="8">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="8">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="8">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="8">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="8">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="8">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="8">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="8">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="8">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="8">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="8">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="8">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="8">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="8">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="8">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="8">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="8">#REF!</definedName>
-    <definedName name="_R1_2" localSheetId="9">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="9">#REF!</definedName>
-    <definedName name="_R10_1" localSheetId="9">#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="9">#REF!</definedName>
-    <definedName name="_R2_11" localSheetId="9">#REF!</definedName>
-    <definedName name="_R2_12" localSheetId="9">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="9">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="9">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_17" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_19" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_20" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_21" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="9">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="9">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_1" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_10" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_17" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_18" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_21" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_22" localSheetId="9">#REF!</definedName>
-    <definedName name="_R5_9" localSheetId="9">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="9">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="9">#REF!</definedName>
-    <definedName name="_R7_2" localSheetId="9">#REF!</definedName>
-    <definedName name="_R8_3" localSheetId="9">#REF!</definedName>
-    <definedName name="_R8_4" localSheetId="9">#REF!</definedName>
-    <definedName name="_R8_5" localSheetId="9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId131" roundtripDataSignature="AMtx7mjoholsyV4wm7X8410XmcGaQJqvwA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Turismos</t>
+  </si>
+  <si>
+    <t>Autobuses</t>
+  </si>
+  <si>
+    <t>Camiones</t>
+  </si>
+  <si>
+    <t>Motocicletas</t>
+  </si>
+  <si>
+    <t>Ciclomotores</t>
+  </si>
+  <si>
+    <t>Furgonetas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tractores </t>
+  </si>
+  <si>
+    <t>Remolques y semiremolques</t>
+  </si>
+  <si>
+    <t>Otros
+Vehículos</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Diésel</t>
+  </si>
+  <si>
+    <t>Eléctrico</t>
+  </si>
+  <si>
+    <t>Butano</t>
+  </si>
+  <si>
+    <t>Biometano</t>
+  </si>
+  <si>
+    <t>Etanol</t>
+  </si>
+  <si>
+    <t>Hidrógeno</t>
+  </si>
+  <si>
+    <t>Gas Natural Comprimido</t>
+  </si>
+  <si>
+    <t>Gas Natural Licuado</t>
+  </si>
+  <si>
+    <t>Gas Licuado de Petróleo</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>PARQUE DE VEHÍCULOS DGT</t>
+  </si>
+  <si>
+    <t>Fuente: Dirección General de Tráfico.</t>
+  </si>
+  <si>
+    <t>Hasta 4 años</t>
+  </si>
+  <si>
+    <t>De 5 a 9 años</t>
+  </si>
+  <si>
+    <t>De 10 a 14 años</t>
+  </si>
+  <si>
+    <t>De 15 a 19 años</t>
+  </si>
+  <si>
+    <t>De 20 y más años</t>
+  </si>
+  <si>
+    <t>Cuatriciclo ligero</t>
+  </si>
+  <si>
+    <t>Ciclomotor de 2 ruedas</t>
+  </si>
+  <si>
+    <t>Ciclomotor de 3 ruedas</t>
+  </si>
+  <si>
+    <t>1. Parque de vehículos según tipo de vehículo y carburante. 2023</t>
+  </si>
+  <si>
+    <t>2. Parque de vehículos según tipo de vehículo y antigüedad. 2023</t>
+  </si>
+  <si>
+    <t>Nota: Datos correspondientes a 31 de diciembre del año anterior</t>
+  </si>
+  <si>
+    <t>Fuente: Dirección General de Tráfico</t>
+  </si>
+  <si>
+    <t>Hasta 20</t>
+  </si>
+  <si>
+    <t>De 21 a 35</t>
+  </si>
+  <si>
+    <t>De 36 a 50</t>
+  </si>
+  <si>
+    <t>Más de 50</t>
+  </si>
+  <si>
+    <t>No procede</t>
+  </si>
+  <si>
+    <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>3. Parque de turismos según antigüedad y tipo de carburante. 2023</t>
+  </si>
+  <si>
+    <t>4. Parque de turismos según antigüedad y cilindrada. 2023</t>
+  </si>
+  <si>
+    <t>De 1.200 a 1.599 cm³</t>
+  </si>
+  <si>
+    <t>De 1.600 a 1.999 cm³</t>
+  </si>
+  <si>
+    <t>Hasta 1.199 cm³</t>
+  </si>
+  <si>
+    <t>Más de 1.999 cm³</t>
+  </si>
+  <si>
+    <t>Hasta 499 Kg</t>
+  </si>
+  <si>
+    <t>De 500 a 749 Kg</t>
+  </si>
+  <si>
+    <t>De 750 a 999 Kg</t>
+  </si>
+  <si>
+    <t>Más de 999 Kg</t>
+  </si>
+  <si>
+    <t>Hasta 999 Kg</t>
+  </si>
+  <si>
+    <t>De 1.000 a 1.499 Kg</t>
+  </si>
+  <si>
+    <t>De 1.500 a 2.999 Kg</t>
+  </si>
+  <si>
+    <t>De 3.000 a 4.999 Kg</t>
+  </si>
+  <si>
+    <t>De 5.000 a 6.999 Kg</t>
+  </si>
+  <si>
+    <t>De 7.000 a 9.999 Kg</t>
+  </si>
+  <si>
+    <t>Más de 9.999 Kg</t>
+  </si>
+  <si>
+    <t>7. Parque de furgonetas según carga útil y antigüedad. 2023</t>
+  </si>
+  <si>
+    <t>8. Parque de camiones según carga útil y antigüedad. 2023</t>
+  </si>
+  <si>
+    <t>9. Parque de ciclomotores según tipo. 2023</t>
+  </si>
+  <si>
+    <t>6. Parque de autobuses según número de plazas y antigüedad. 2023</t>
+  </si>
+  <si>
+    <t>5. Parque de motocicletas según antigüedad y cilindrada. 2023</t>
+  </si>
+  <si>
+    <t>Hasta 75 cm3</t>
+  </si>
+  <si>
+    <t>De 76 a 125 cm³</t>
+  </si>
+  <si>
+    <t>De 126 a 250 cm³</t>
+  </si>
+  <si>
+    <t>De 251 a 500 cm³</t>
+  </si>
+  <si>
+    <t>De 501 a 750 cm³</t>
+  </si>
+  <si>
+    <t>Más de 750 cm³</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -557,131 +783,72 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -12369,7 +12536,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -16164,8 +16331,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -17072,2837 +17239,2465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>PARQUE DE VEHÍCULOS DGT</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja10">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="24.140625" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>9. Parque de ciclomotores según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>18936</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Ciclomotor de 2 ruedas</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10">
         <v>18532</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Ciclomotor de 3 ruedas</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Cuatriciclo ligero</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10">
         <v>384</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
+    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="14" t="n"/>
-      <c r="B11" s="14" t="n"/>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="16" t="n"/>
-      <c r="B12" s="16" t="n"/>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="16" t="n"/>
-      <c r="B13" s="16" t="n"/>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="16" t="n"/>
-      <c r="B14" s="16" t="n"/>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16" t="n"/>
-      <c r="B15" s="16" t="n"/>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="16" t="n"/>
-      <c r="B16" s="16" t="n"/>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.85546875" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="7"/>
-    <col width="12.85546875" customWidth="1" min="8" max="11"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="7" width="12" customWidth="1"/>
+    <col min="8" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>1. Parque de vehículos según tipo de vehículo y carburante. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Turismos</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Furgonetas</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Camiones</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Autobuses</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tractores </t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>Ciclomotores</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>Remolques y semiremolques</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>Otros
-Vehículos</t>
-        </is>
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>509974</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>357241</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>25463</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>23995</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>1066</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>70562</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="8">
         <v>3243</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="8">
         <v>18936</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="8">
         <v>6293</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="8">
         <v>3175</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Gasolina</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
         <v>288765</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>193533</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>5710</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>761</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>69701</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>18327</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="10">
         <v>731</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Diésel</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
         <v>209135</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>159821</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>19492</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>22961</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>970</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>55</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>3243</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>323</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="5">
         <v>2270</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>Eléctrico</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10">
         <v>3345</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>1852</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>169</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>150</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>43</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>770</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>283</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>0</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Butano</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="B8" s="5">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="12">
         <v>0</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="12">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>Biometano</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="11">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>0</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="17" t="inlineStr">
-        <is>
-          <t>Etanol</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t>Hidrógeno</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="n">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="10">
         <v>3</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="11" t="n">
+      <c r="J11" s="11">
         <v>0</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="10">
         <v>0</v>
       </c>
-      <c r="N11" s="9" t="n"/>
+      <c r="N11" s="9"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="17" t="inlineStr">
-        <is>
-          <t>Gas Natural Comprimido</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
         <v>321</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>175</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>22</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>92</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>28</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t>Gas Natural Licuado</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="n">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="10">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="10">
         <v>0</v>
       </c>
-      <c r="H13" s="10" t="n">
+      <c r="H13" s="10">
         <v>0</v>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="10">
         <v>0</v>
       </c>
-      <c r="J13" s="11" t="n">
+      <c r="J13" s="11">
         <v>0</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>Gas Licuado de Petróleo</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5">
         <v>1897</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>1802</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>68</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>20</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="12" t="n">
+      <c r="H14" s="12">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="B15" s="10" t="n">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="11">
         <v>0</v>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="10">
         <v>0</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="n">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5">
         <v>194</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>43</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>22</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="5">
         <v>35</v>
       </c>
-      <c r="H16" s="12" t="n">
+      <c r="H16" s="12">
         <v>0</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5">
         <v>3</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>No procede</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="n">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="10">
         <v>6293</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="10">
         <v>0</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="10" t="n">
+      <c r="I17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="10">
         <v>6293</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior</t>
-        </is>
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico</t>
-        </is>
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="n"/>
-      <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="66"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="16.85546875" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="11"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>2. Parque de vehículos según tipo de vehículo y antigüedad. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Turismos</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Furgonetas</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Camiones</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Autobuses</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>Motocicletas</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tractores </t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>Ciclomotores</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
-        <is>
-          <t>Remolques y semiremolques</t>
-        </is>
-      </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>Otros
-Vehículos</t>
-        </is>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>509974</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>357241</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>25463</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>23995</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>1066</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>70562</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="8">
         <v>3243</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="8">
         <v>18936</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="8">
         <v>6293</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="8">
         <v>3175</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>107198</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>79308</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>5067</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>2387</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>337</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>16719</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>712</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>1085</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>1009</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="10">
         <v>574</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <v>91059</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>70957</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4261</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>2059</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>124</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>10738</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>1071</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>875</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>742</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="5">
         <v>232</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
         <v>74830</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>56841</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>2724</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>2658</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>116</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>9592</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>431</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>1577</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="10">
         <v>641</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="10">
         <v>250</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>108449</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>76202</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>3651</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>7549</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>235</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>13339</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="12">
         <v>309</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>4759</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="12">
         <v>1326</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="5">
         <v>1079</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
         <v>128438</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>73933</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>9760</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>9342</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>254</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>20174</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H9" s="11">
         <v>720</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>10640</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="11">
         <v>2575</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="10">
         <v>1040</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico</t>
-        </is>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="67"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.28515625" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="7"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>3. Parque de turismos según antigüedad y tipo de carburante. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Gasolina</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Diésel</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>Eléctrico</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>No consta</t>
-        </is>
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="8">
         <f>SUM(C4:G4)</f>
-        <v/>
+        <v>357241</v>
       </c>
       <c r="C4" s="8">
         <f>SUM(C5:C9)</f>
-        <v/>
+        <v>193533</v>
       </c>
       <c r="D4" s="8">
         <f>SUM(D5:D9)</f>
-        <v/>
+        <v>159821</v>
       </c>
       <c r="E4" s="8">
         <f>SUM(E5:E9)</f>
-        <v/>
+        <v>1852</v>
       </c>
       <c r="F4" s="8">
         <f>SUM(F5:F9)</f>
-        <v/>
+        <v>1992</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(G5:G9)</f>
-        <v/>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="10">
-        <f>SUM(C5:G5)</f>
-        <v/>
-      </c>
-      <c r="C5" s="10" t="n">
+        <f t="shared" ref="B5:B9" si="0">SUM(C5:G5)</f>
+        <v>79308</v>
+      </c>
+      <c r="C5" s="10">
         <v>58649</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>17294</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>1659</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>1696</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="5">
-        <f>SUM(C6:G6)</f>
-        <v/>
-      </c>
-      <c r="C6" s="5" t="n">
+        <f t="shared" si="0"/>
+        <v>70957</v>
+      </c>
+      <c r="C6" s="5">
         <v>33070</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>37510</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>181</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>194</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="10">
-        <f>SUM(C7:G7)</f>
-        <v/>
-      </c>
-      <c r="C7" s="10" t="n">
+        <f t="shared" si="0"/>
+        <v>56841</v>
+      </c>
+      <c r="C7" s="10">
         <v>19572</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>37203</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>11</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>52</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="5">
-        <f>SUM(C8:G8)</f>
-        <v/>
-      </c>
-      <c r="C8" s="5" t="n">
+        <f t="shared" si="0"/>
+        <v>76202</v>
+      </c>
+      <c r="C8" s="5">
         <v>28822</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>47350</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="10">
-        <f>SUM(C9:G9)</f>
-        <v/>
-      </c>
-      <c r="C9" s="10" t="n">
+        <f t="shared" si="0"/>
+        <v>73933</v>
+      </c>
+      <c r="C9" s="10">
         <v>53420</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>20464</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>21</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n"/>
-      <c r="F11" s="16" t="n"/>
-      <c r="G11" s="16" t="n"/>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.28515625" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="2"/>
-    <col width="12.42578125" customWidth="1" min="3" max="6"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>4. Parque de turismos según antigüedad y cilindrada. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>Hasta 1.199 cm³</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>De 1.200 a 1.599 cm³</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>De 1.600 a 1.999 cm³</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Más de 1.999 cm³</t>
-        </is>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>357241</v>
       </c>
       <c r="C4" s="8">
         <f>SUM(C5:C9)</f>
-        <v/>
+        <v>76351</v>
       </c>
       <c r="D4" s="8">
         <f>SUM(D5:D9)</f>
-        <v/>
+        <v>150679</v>
       </c>
       <c r="E4" s="8">
         <f>SUM(E5:E9)</f>
-        <v/>
+        <v>100926</v>
       </c>
       <c r="F4" s="8">
         <f>SUM(F5:F9)</f>
-        <v/>
+        <v>29285</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>79308</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>31319</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>31042</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>13911</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>3036</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <v>70957</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>17467</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>34678</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>14246</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>4566</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
         <v>56841</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>4021</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>30645</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>17853</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>4322</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>76202</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>3850</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>32834</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>31182</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>8336</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
         <v>73933</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>19694</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>21480</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>23734</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>9025</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n"/>
-      <c r="F11" s="16" t="n"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.28515625" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="2"/>
-    <col width="12.42578125" customWidth="1" min="3" max="8"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>5. Parque de motocicletas según antigüedad y cilindrada. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="33.75" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="20" t="inlineStr">
-        <is>
-          <t>Hasta 75 cm3</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>De 76 a 125 cm³</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>De 126 a 250 cm³</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>De 251 a 500 cm³</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>De 501 a 750 cm³</t>
-        </is>
-      </c>
-      <c r="H3" s="20" t="inlineStr">
-        <is>
-          <t>Más de 750 cm³</t>
-        </is>
+    <row r="3" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>70562</v>
       </c>
       <c r="C4" s="8">
-        <f>SUM(C5:C9)</f>
-        <v/>
+        <f t="shared" ref="C4:H4" si="0">SUM(C5:C9)</f>
+        <v>4612</v>
       </c>
       <c r="D4" s="8">
-        <f>SUM(D5:D9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>28602</v>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>10386</v>
       </c>
       <c r="F4" s="8">
-        <f>SUM(F5:F9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8767</v>
       </c>
       <c r="G4" s="8">
-        <f>SUM(G5:G9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>9665</v>
       </c>
       <c r="H4" s="8">
-        <f>SUM(H5:H9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>8530</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>16719</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>647</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>8240</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>146</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>3054</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>2081</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>2551</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <v>10738</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>103</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>6389</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>361</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>1376</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>1159</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>1350</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
         <v>9592</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>19</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>4791</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>931</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>1142</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>1370</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>1339</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>13339</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>5432</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>2500</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>1444</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>2346</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="5">
         <v>1614</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
         <v>20174</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>3840</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>3750</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>6448</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>1751</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>2709</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="10">
         <v>1676</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n"/>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n"/>
-      <c r="F11" s="16" t="n"/>
-      <c r="G11" s="16" t="n"/>
-      <c r="H11" s="16" t="n"/>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="94"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="6"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
-        <is>
-          <t>6. Parque de autobuses según número de plazas y antigüedad. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Hasta 20</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>De 21 a 35</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>De 36 a 50</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Más de 50</t>
-        </is>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>1066</v>
       </c>
       <c r="C4" s="8">
         <f>SUM(C5:C9)</f>
-        <v/>
+        <v>61</v>
       </c>
       <c r="D4" s="8">
-        <f>SUM(D5:D9)</f>
-        <v/>
+        <f t="shared" ref="D4:F4" si="0">SUM(D5:D9)</f>
+        <v>514</v>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>164</v>
       </c>
       <c r="F4" s="8">
-        <f>SUM(F5:F9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>327</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>337</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>235</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>55</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <v>124</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
         <v>116</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>11</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>235</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>140</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
         <v>254</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>28</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>69</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>57</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja8">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="6"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>7. Parque de furgonetas según carga útil y antigüedad. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Hasta 499 Kg</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>De 500 a 749 Kg</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>De 750 a 999 Kg</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>Más de 999 Kg</t>
-        </is>
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>25463</v>
       </c>
       <c r="C4" s="8">
         <f>SUM(C5:C9)</f>
-        <v/>
+        <v>5408</v>
       </c>
       <c r="D4" s="8">
-        <f>SUM(D5:D9)</f>
-        <v/>
+        <f t="shared" ref="D4:F4" si="0">SUM(D5:D9)</f>
+        <v>11566</v>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4136</v>
       </c>
       <c r="F4" s="8">
-        <f>SUM(F5:F9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4353</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>5067</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>290</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>2495</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>900</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>1382</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <v>4261</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>164</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>2295</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>858</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>944</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
         <v>2724</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>253</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>1615</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>470</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>386</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>3651</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>683</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>2004</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>554</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
         <v>9760</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>4018</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>3157</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>1354</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>1231</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n"/>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="14" t="n"/>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="15" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="14" t="n"/>
-      <c r="F13" s="14" t="n"/>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="16" t="n"/>
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n"/>
-      <c r="F14" s="16" t="n"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="16" t="n"/>
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n"/>
-      <c r="F15" s="16" t="n"/>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="16" t="n"/>
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="16" t="n"/>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="16" t="n"/>
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n"/>
-      <c r="F17" s="16" t="n"/>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="16" t="n"/>
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="16" t="n"/>
-      <c r="F18" s="16" t="n"/>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n"/>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja9">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>8. Parque de camiones según carga útil y antigüedad. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Hasta 999 Kg</t>
-        </is>
-      </c>
-      <c r="D3" s="20" t="inlineStr">
-        <is>
-          <t>De 1.000 a 1.499 Kg</t>
-        </is>
-      </c>
-      <c r="E3" s="20" t="inlineStr">
-        <is>
-          <t>De 1.500 a 2.999 Kg</t>
-        </is>
-      </c>
-      <c r="F3" s="20" t="inlineStr">
-        <is>
-          <t>De 3.000 a 4.999 Kg</t>
-        </is>
-      </c>
-      <c r="G3" s="20" t="inlineStr">
-        <is>
-          <t>De 5.000 a 6.999 Kg</t>
-        </is>
-      </c>
-      <c r="H3" s="20" t="inlineStr">
-        <is>
-          <t>De 7.000 a 9.999 Kg</t>
-        </is>
-      </c>
-      <c r="I3" s="20" t="inlineStr">
-        <is>
-          <t>Más de 9.999 Kg</t>
-        </is>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
         <v>23995</v>
       </c>
       <c r="C4" s="8">
         <f>SUM(C5:C9)</f>
-        <v/>
+        <v>14746</v>
       </c>
       <c r="D4" s="8">
-        <f>SUM(D5:D9)</f>
-        <v/>
+        <f t="shared" ref="D4:I4" si="0">SUM(D5:D9)</f>
+        <v>4962</v>
       </c>
       <c r="E4" s="8">
-        <f>SUM(E5:E9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1368</v>
       </c>
       <c r="F4" s="8">
-        <f>SUM(F5:F9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>693</v>
       </c>
       <c r="G4" s="8">
-        <f>SUM(G5:G9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>477</v>
       </c>
       <c r="H4" s="8">
-        <f>SUM(H5:H9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>688</v>
       </c>
       <c r="I4" s="8">
-        <f>SUM(I5:I9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1061</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t>Hasta 4 años</t>
-        </is>
-      </c>
-      <c r="B5" s="10" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>2387</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="10">
         <v>1183</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="10">
         <v>675</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>123</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>88</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>35</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>88</v>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>195</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>De 5 a 9 años</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <v>2059</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>1373</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>406</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>59</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>54</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>37</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>31</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t>De 10 a 14 años</t>
-        </is>
-      </c>
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
         <v>2658</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="10">
         <v>1819</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="10">
         <v>423</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="10">
         <v>129</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="10">
         <v>41</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="10">
         <v>67</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>93</v>
       </c>
-      <c r="I7" s="10" t="n">
+      <c r="I7" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>De 15 a 19 años</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
         <v>7549</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>5238</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>1498</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>303</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>85</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>86</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="5">
         <v>173</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>166</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t>De 20 y más años</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
         <v>9342</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="10">
         <v>5133</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>1960</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>754</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="10">
         <v>425</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="10">
         <v>252</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="10">
         <v>303</v>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="10">
         <v>515</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="inlineStr">
-        <is>
-          <t>Nota: Datos correspondientes a 31 de diciembre del año anterior. Antigüedad calculada desde la fecha de primera matriculación</t>
-        </is>
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Dirección General de Tráfico.</t>
-        </is>
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="92"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>